--- a/DOC/Arabic/Google/Google VS Rosette.xlsx
+++ b/DOC/Arabic/Google/Google VS Rosette.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Noun Case" sheetId="2" r:id="rId2"/>
     <sheet name="Derivation2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>Regular Verb Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Did you man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4, 6, 7, 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +345,18 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>سياراتهنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you man سيارات قنا</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you mean سياراتهن</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,15 +502,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +795,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:Q14"/>
+      <selection activeCell="E35" activeCellId="3" sqref="E5 E13 E28 E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,32 +804,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -830,15 +838,15 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -850,8 +858,8 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -867,8 +875,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -882,8 +890,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -895,8 +903,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -906,19 +914,19 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="20"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -928,15 +936,15 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -946,21 +954,21 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="M12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="O12" s="19"/>
+      <c r="P12" s="19">
         <v>0.1176</v>
       </c>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>1</v>
       </c>
@@ -974,21 +982,21 @@
         <v>8</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="M13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19">
         <v>0.1176</v>
       </c>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -1002,21 +1010,21 @@
       <c r="G14" s="9">
         <v>8</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="19">
         <v>0.94099999999999995</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19">
         <v>0.32350000000000001</v>
       </c>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -1028,8 +1036,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -1041,8 +1049,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -1054,8 +1062,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -1067,8 +1075,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>1</v>
       </c>
@@ -1080,8 +1088,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1101,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -1106,8 +1114,8 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>1</v>
       </c>
@@ -1121,8 +1129,8 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -1136,8 +1144,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>1</v>
       </c>
@@ -1151,8 +1159,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +1174,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -1179,8 +1187,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -1192,8 +1200,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>1</v>
       </c>
@@ -1207,8 +1215,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -1222,8 +1230,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -1235,8 +1243,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" t="s">
         <v>1</v>
       </c>
@@ -1248,8 +1256,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -1261,8 +1269,8 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" t="s">
         <v>1</v>
       </c>
@@ -1274,8 +1282,8 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" t="s">
         <v>1</v>
       </c>
@@ -1287,8 +1295,8 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -1302,8 +1310,8 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" t="s">
         <v>1</v>
       </c>
@@ -1315,8 +1323,8 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1328,8 +1336,8 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1372,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:M18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1374,27 +1382,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1406,12 +1414,12 @@
         <v>55</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -1427,8 +1435,8 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -1446,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -1461,12 +1469,12 @@
         <v>58</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -1478,8 +1486,8 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -1493,8 +1501,8 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>33</v>
       </c>
@@ -1506,8 +1514,8 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -1519,34 +1527,34 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -1556,15 +1564,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -1574,15 +1582,15 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>33</v>
       </c>
@@ -1594,21 +1602,21 @@
         <v>54</v>
       </c>
       <c r="G16" s="12"/>
-      <c r="I16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="19">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
         <v>0.29409999999999997</v>
       </c>
-      <c r="M16" s="20"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -1618,21 +1626,21 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20" t="s">
+      <c r="J17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -1642,21 +1650,21 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20" t="s">
+      <c r="J18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="20"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -1670,8 +1678,8 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -1683,8 +1691,8 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1702,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1727,49 +1735,49 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="11"/>
       <c r="H7" s="16">
@@ -1777,24 +1785,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
       </c>
       <c r="H9" s="11"/>
     </row>
